--- a/src/test/java/testdata/TestData.xlsx
+++ b/src/test/java/testdata/TestData.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hambe\Desktop\Native Playright\Native-Playwright\src\test\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DAFFC8-8D99-4F91-854A-0C140E5111C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FFAEDF-2D29-49AA-9ADD-72892FDFC374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>email</t>
   </si>
@@ -31,19 +32,13 @@
     <t>passwordconf</t>
   </si>
   <si>
-    <t>ad@gmail.com</t>
-  </si>
-  <si>
-    <t>dau</t>
-  </si>
-  <si>
-    <t>uggggg</t>
-  </si>
-  <si>
     <t>douuuuuuu</t>
   </si>
   <si>
-    <t>akakutorag@gmail.com</t>
+    <t>uggggg@gmail.com</t>
+  </si>
+  <si>
+    <t>bbbbbbbb@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -411,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,43 +429,65 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
+      <c r="A2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="ug@mail.com" xr:uid="{63D30B64-64CD-4BDD-81F7-D0FBFD4C697E}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{2090B02C-7CDE-4149-8C33-D9D6CD72A18C}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{8BCC9BD6-A6FF-422D-8D72-041163739D88}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{63D30B64-64CD-4BDD-81F7-D0FBFD4C697E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE98DB9-046C-41BE-A525-732B7F80CAE4}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{A248B791-570D-4A19-BF32-FFE328899B49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/testdata/TestData.xlsx
+++ b/src/test/java/testdata/TestData.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hambe\Desktop\Native Playright\Native-Playwright\src\test\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FFAEDF-2D29-49AA-9ADD-72892FDFC374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25AB9FD-6623-4783-A360-2321B51F036E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4416" yWindow="1224" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
     <sheet name="test" sheetId="2" r:id="rId2"/>
+    <sheet name="articles" sheetId="3" r:id="rId3"/>
+    <sheet name="addarticles" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>email</t>
   </si>
@@ -38,7 +40,22 @@
     <t>uggggg@gmail.com</t>
   </si>
   <si>
-    <t>bbbbbbbb@gmail.com</t>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>T-shirt</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>T-shirt en coton biologique</t>
+  </si>
+  <si>
+    <t>Chaussures Hommes de Ville</t>
+  </si>
+  <si>
+    <t>TESTEUR@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -458,7 +475,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,7 +493,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -491,4 +508,71 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38CDA9F-C971-4B2E-AC86-CF9964F5D7B7}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97FA688-140F-4C43-A961-FC8FE6A2724D}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/java/testdata/TestData.xlsx
+++ b/src/test/java/testdata/TestData.xlsx
@@ -2,28 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hambe\Desktop\Native Playright\Native-Playwright\src\test\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25AB9FD-6623-4783-A360-2321B51F036E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF041F3B-8494-472B-96FB-E5B1D8D0E180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4416" yWindow="1224" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="users" sheetId="1" r:id="rId1"/>
-    <sheet name="test" sheetId="2" r:id="rId2"/>
-    <sheet name="articles" sheetId="3" r:id="rId3"/>
-    <sheet name="addarticles" sheetId="4" r:id="rId4"/>
+    <sheet name="users" sheetId="5" r:id="rId1"/>
+    <sheet name="articles" sheetId="3" r:id="rId2"/>
+    <sheet name="addarticles" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>email</t>
   </si>
@@ -37,9 +36,6 @@
     <t>douuuuuuu</t>
   </si>
   <si>
-    <t>uggggg@gmail.com</t>
-  </si>
-  <si>
     <t>productName</t>
   </si>
   <si>
@@ -55,7 +51,7 @@
     <t>Chaussures Hommes de Ville</t>
   </si>
   <si>
-    <t>TESTEUR@gmail.com</t>
+    <t>polapola@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -101,9 +97,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
@@ -420,18 +415,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB652C9F-099A-41F8-9006-2103D7CEE8EC}">
+  <sheetPr codeName="Feuil1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -446,8 +440,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
+      <c r="A2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -456,62 +450,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{63D30B64-64CD-4BDD-81F7-D0FBFD4C697E}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{867C897D-6E34-40DF-A5DF-3E65FCD36955}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE98DB9-046C-41BE-A525-732B7F80CAE4}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{A248B791-570D-4A19-BF32-FFE328899B49}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38CDA9F-C971-4B2E-AC86-CF9964F5D7B7}">
+  <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -520,12 +470,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -534,12 +484,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97FA688-140F-4C43-A961-FC8FE6A2724D}">
+  <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,15 +500,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -565,7 +516,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2</v>

--- a/src/test/java/testdata/TestData.xlsx
+++ b/src/test/java/testdata/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hambe\Desktop\Native Playright\Native-Playwright\src\test\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF041F3B-8494-472B-96FB-E5B1D8D0E180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE5D7CD-0325-4FA1-B8CF-5CF9E35F312D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>email</t>
   </si>
@@ -45,13 +45,10 @@
     <t>quantity</t>
   </si>
   <si>
-    <t>T-shirt en coton biologique</t>
-  </si>
-  <si>
-    <t>Chaussures Hommes de Ville</t>
-  </si>
-  <si>
     <t>polapola@gmail.com</t>
+  </si>
+  <si>
+    <t>pola</t>
   </si>
 </sst>
 </file>
@@ -419,7 +416,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -441,7 +438,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -464,7 +461,9 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -487,10 +486,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97FA688-140F-4C43-A961-FC8FE6A2724D}">
   <sheetPr codeName="Feuil3"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,18 +507,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/testdata/TestData.xlsx
+++ b/src/test/java/testdata/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26107"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hambe\Desktop\Native Playright\Native-Playwright\src\test\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE5D7CD-0325-4FA1-B8CF-5CF9E35F312D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFD0149-5427-4962-901C-9B18552AB0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>email</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>polapola@gmail.com</t>
-  </si>
-  <si>
-    <t>pola</t>
   </si>
 </sst>
 </file>
@@ -489,7 +486,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,7 +504,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>3</v>

--- a/src/test/java/testdata/TestData.xlsx
+++ b/src/test/java/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hambe\Desktop\Native Playright\Native-Playwright\src\test\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFD0149-5427-4962-901C-9B18552AB0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CCE599-BE05-488D-B109-42D4C05C7A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>email</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>polapola@gmail.com</t>
+  </si>
+  <si>
+    <t>Chaussure</t>
+  </si>
+  <si>
+    <t>T-Shirt</t>
   </si>
 </sst>
 </file>
@@ -483,10 +489,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97FA688-140F-4C43-A961-FC8FE6A2724D}">
   <sheetPr codeName="Feuil3"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,10 +510,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
